--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_3_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_3_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -26332,13 +26334,13 @@
         <v>40835.24109532517</v>
       </c>
       <c r="I2" t="n">
-        <v>40835.24109532516</v>
+        <v>40835.24109532517</v>
       </c>
       <c r="J2" t="n">
         <v>40835.24109532517</v>
       </c>
       <c r="K2" t="n">
-        <v>40835.24109532516</v>
+        <v>40835.24109532517</v>
       </c>
       <c r="L2" t="n">
         <v>40835.24109532517</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="C4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="D4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="E4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="F4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="G4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="H4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="I4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="J4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="K4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="L4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="M4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="N4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="O4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
       <c r="P4" t="n">
-        <v>13611.74703177505</v>
+        <v>13611.74703177506</v>
       </c>
     </row>
     <row r="5">
@@ -26534,22 +26536,22 @@
         <v>27223.49406355011</v>
       </c>
       <c r="G6" t="n">
-        <v>27223.49406355012</v>
+        <v>27223.49406355011</v>
       </c>
       <c r="H6" t="n">
         <v>27223.49406355011</v>
       </c>
       <c r="I6" t="n">
-        <v>27223.4940635501</v>
+        <v>27223.49406355011</v>
       </c>
       <c r="J6" t="n">
         <v>27223.49406355011</v>
       </c>
       <c r="K6" t="n">
-        <v>27223.4940635501</v>
+        <v>27223.49406355011</v>
       </c>
       <c r="L6" t="n">
-        <v>27223.49406355012</v>
+        <v>27223.49406355011</v>
       </c>
       <c r="M6" t="n">
         <v>27223.49406355011</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_3_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_3_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>135780.9159023403</v>
+        <v>13180.89532373233</v>
       </c>
     </row>
     <row r="7">
@@ -26322,7 +26322,7 @@
         <v>40835.24109532517</v>
       </c>
       <c r="E2" t="n">
-        <v>40835.24109532517</v>
+        <v>40835.24109532516</v>
       </c>
       <c r="F2" t="n">
         <v>40835.24109532517</v>
@@ -26331,13 +26331,13 @@
         <v>40835.24109532517</v>
       </c>
       <c r="H2" t="n">
-        <v>40835.24109532517</v>
+        <v>40835.24109532516</v>
       </c>
       <c r="I2" t="n">
-        <v>40835.24109532517</v>
+        <v>40835.24109532516</v>
       </c>
       <c r="J2" t="n">
-        <v>40835.24109532517</v>
+        <v>40835.24109532516</v>
       </c>
       <c r="K2" t="n">
         <v>40835.24109532517</v>
@@ -26352,7 +26352,7 @@
         <v>40835.24109532517</v>
       </c>
       <c r="O2" t="n">
-        <v>40835.24109532516</v>
+        <v>40835.24109532517</v>
       </c>
       <c r="P2" t="n">
         <v>40835.24109532517</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13611.74703177506</v>
+        <v>13611.74703177505</v>
       </c>
       <c r="C4" t="n">
-        <v>13611.74703177506</v>
+        <v>13611.74703177505</v>
       </c>
       <c r="D4" t="n">
-        <v>13611.74703177506</v>
+        <v>13611.74703177505</v>
       </c>
       <c r="E4" t="n">
-        <v>13611.74703177506</v>
+        <v>13611.74703177505</v>
       </c>
       <c r="F4" t="n">
-        <v>13611.74703177506</v>
+        <v>13611.74703177505</v>
       </c>
       <c r="G4" t="n">
-        <v>13611.74703177506</v>
+        <v>13611.74703177505</v>
       </c>
       <c r="H4" t="n">
-        <v>13611.74703177506</v>
+        <v>13611.74703177505</v>
       </c>
       <c r="I4" t="n">
-        <v>13611.74703177506</v>
+        <v>13611.74703177505</v>
       </c>
       <c r="J4" t="n">
-        <v>13611.74703177506</v>
+        <v>13611.74703177505</v>
       </c>
       <c r="K4" t="n">
-        <v>13611.74703177506</v>
+        <v>13611.74703177505</v>
       </c>
       <c r="L4" t="n">
-        <v>13611.74703177506</v>
+        <v>13611.74703177505</v>
       </c>
       <c r="M4" t="n">
-        <v>13611.74703177506</v>
+        <v>13611.74703177505</v>
       </c>
       <c r="N4" t="n">
-        <v>13611.74703177506</v>
+        <v>13611.74703177505</v>
       </c>
       <c r="O4" t="n">
-        <v>13611.74703177506</v>
+        <v>13611.74703177505</v>
       </c>
       <c r="P4" t="n">
-        <v>13611.74703177506</v>
+        <v>13611.74703177505</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6404.105936449887</v>
+        <v>-21057.45843821275</v>
       </c>
       <c r="C6" t="n">
-        <v>-6404.105936449887</v>
+        <v>-21057.45843821275</v>
       </c>
       <c r="D6" t="n">
-        <v>-6404.105936449887</v>
+        <v>-21057.45843821274</v>
       </c>
       <c r="E6" t="n">
-        <v>27223.49406355011</v>
+        <v>12570.14156178724</v>
       </c>
       <c r="F6" t="n">
-        <v>27223.49406355011</v>
+        <v>12570.14156178725</v>
       </c>
       <c r="G6" t="n">
-        <v>27223.49406355011</v>
+        <v>12570.14156178725</v>
       </c>
       <c r="H6" t="n">
-        <v>27223.49406355011</v>
+        <v>12570.14156178724</v>
       </c>
       <c r="I6" t="n">
-        <v>27223.49406355011</v>
+        <v>12570.14156178724</v>
       </c>
       <c r="J6" t="n">
-        <v>27223.49406355011</v>
+        <v>12570.14156178724</v>
       </c>
       <c r="K6" t="n">
-        <v>27223.49406355011</v>
+        <v>12570.14156178725</v>
       </c>
       <c r="L6" t="n">
-        <v>27223.49406355011</v>
+        <v>12570.14156178725</v>
       </c>
       <c r="M6" t="n">
-        <v>27223.49406355011</v>
+        <v>12570.14156178725</v>
       </c>
       <c r="N6" t="n">
-        <v>27223.49406355011</v>
+        <v>12570.14156178725</v>
       </c>
       <c r="O6" t="n">
-        <v>27223.4940635501</v>
+        <v>12570.14156178725</v>
       </c>
       <c r="P6" t="n">
-        <v>27223.49406355011</v>
+        <v>12570.14156178725</v>
       </c>
     </row>
   </sheetData>
